--- a/scripts/translation/translation.xlsx
+++ b/scripts/translation/translation.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>en_us</t>
   </si>
@@ -22,10 +22,25 @@
     <t>zh_cn</t>
   </si>
   <si>
-    <t>coming_soon</t>
+    <t>qr_code_reader</t>
   </si>
   <si>
-    <t>Coming soon</t>
+    <t>QR Scanner &amp; Custom Generator</t>
+  </si>
+  <si>
+    <t>QR Code掃描和自定義生成器</t>
+  </si>
+  <si>
+    <t>unit_converter</t>
+  </si>
+  <si>
+    <t>Converter-Common Units Convert</t>
+  </si>
+  <si>
+    <t>單位轉換器: 常用單位換算</t>
+  </si>
+  <si>
+    <t>单位转换器: 常用单位换算</t>
   </si>
 </sst>
 </file>
@@ -1403,10 +1418,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="8"/>
@@ -1414,10 +1429,18 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s" s="3">
+        <v>9</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
